--- a/casestudy/hexo-12/HexoExperiments.xlsx
+++ b/casestudy/hexo-12/HexoExperiments.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/bugs.js-study/Hexo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/hexo-12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD4094C-00E2-9A42-8CB3-5718B063A096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F4DD65-F359-9E4D-A5BB-37AEE0AF5752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="3440" windowWidth="28040" windowHeight="17440" xr2:uid="{4FE0EC7D-01FA-454F-B2A5-BE08A4EE20E2}"/>
+    <workbookView xWindow="6660" yWindow="3440" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{4FE0EC7D-01FA-454F-B2A5-BE08A4EE20E2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bug 12" sheetId="1" r:id="rId1"/>
+    <sheet name="bug" sheetId="2" r:id="rId1"/>
+    <sheet name="mutants" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="90">
   <si>
     <t>bug#</t>
   </si>
@@ -277,9 +278,6 @@
   }</t>
   </si>
   <si>
-    <t xml:space="preserve">more/different failures from buggy/fixed </t>
-  </si>
-  <si>
     <t>This mutant is part of the original bug and causes one of the two test failures caused by the original bug</t>
   </si>
   <si>
@@ -465,9 +463,6 @@
   }</t>
   </si>
   <si>
-    <t>makes the same tests pass as the original code, i.e., this mutant survives</t>
-  </si>
-  <si>
     <t xml:space="preserve"> {
     "file": "lib/hexo/post.js",
     "startLine": 50,
@@ -566,9 +561,6 @@
   }</t>
   </si>
   <si>
-    <t xml:space="preserve"> part of the original bug</t>
-  </si>
-  <si>
     <t>{
     "file": "lib/hexo/post.js",
     "startLine": 50,
@@ -610,12 +602,2786 @@
     "reason": "call/arg0"
   }</t>
   </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>buggy code</t>
+  </si>
+  <si>
+    <t>fixed code</t>
+  </si>
+  <si>
+    <t>test failures</t>
+  </si>
+  <si>
+    <t>lib /hexo/post.js</t>
+  </si>
+  <si>
+    <t>data.slug = slugize(data.slug || data.title, {transform: config.filename_case})</t>
+  </si>
+  <si>
+    <t>var slug = data.slug = slugize(data.slug, {transform: config.filename_case});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checkout buggy version using: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">running the tests: node_modules/.bin/_mocha  test/index.js </t>
+  </si>
+  <si>
+    <t xml:space="preserve">checkout fixed version using: python3 main.py -p Hexo -b 12 -t test -v fixed -o output/ </t>
+  </si>
+  <si>
+    <t>var slug = data.slug = slugize(data.slug.toString(), {transform: config.filename_case});</t>
+  </si>
+  <si>
+    <t>data.slug = slugize((data.slug || data.title).toString(), {transform: config.filename_case});</t>
+  </si>
+  <si>
+    <t>2 failing
+  1) Hexo Core Post create() - non-string title:
+     TypeError: str must be a string!
+      at module.exports (node_modules/hexo-util/lib/slugize.js:9:38)
+      at Post.create (lib/hexo/post.js:50:15)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:289:17)
+  2) Hexo Core Post publish() - non-string title:
+     TypeError: str must be a string!
+      at module.exports (node_modules/hexo-util/lib/slugize.js:9:38)
+      at Post.create (lib/hexo/post.js:50:15)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:438:17)</t>
+  </si>
+  <si>
+    <t>run using Node v6.17.1</t>
+  </si>
+  <si>
+    <t>to ignore 18 failing tests unrelated to the bug , comment out failing tests in files router.js, render.js, post.js, render_post.js, hexo.js</t>
+  </si>
+  <si>
+    <t>13 failing
+  1) Hexo Console new slug:
+     Error: ENOENT: no such file or directory, open '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/new_test/source/_posts/foo.md'
+      at Error (native)
+  2) Hexo Core Post create() - slug:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/foo.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/foo.md
+      at test/scripts/hexo/post.js:91:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  3) Hexo Core Post create() - filename_case:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-0.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-0.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world.md
+      at test/scripts/hexo/post.js:117:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  4) Hexo Core Post create() - layout:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-1.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-1.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:144:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  5) Hexo Core Post create() - extra data:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-2.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-2.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:170:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  6) Hexo Core Post create() - rename if target existed:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-4.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World-1.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-4.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World-1.md
+      at test/scripts/hexo/post.js:190:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  7) Hexo Core Post create() - replace existing files:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:212:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  8) Hexo Core Post create() - asset folder:
+     Error: ENOENT: no such file or directory, stat '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World'
+      at Error (native)
+  9) Hexo Core Post publish():
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-7.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-7.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:319:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  10) Hexo Core Post publish() - layout:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-8.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-8.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:355:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  11) Hexo Core Post publish() - rename if target existed:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-10.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World-1.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-10.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World-1.md
+      at test/scripts/hexo/post.js:379:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  12) Hexo Core Post publish() - replace existing files:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:397:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  13) Hexo Core Post publish() - asset folder:
+     Error: ENOENT: no such file or directory, scandir '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World'
+      at Error (native)</t>
+  </si>
+  <si>
+    <t>13 test failures, all different from the ones caused by the original bug</t>
+  </si>
+  <si>
+    <t>25 failing
+  1) Hexo Console new title:
+     Error: ENOENT: no such file or directory, open '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/new_test/source/_posts/Hello-World.md'
+      at Error (native)
+  2) Hexo Console new layout:
+     Error: ENOENT: no such file or directory, open '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/new_test/source/_drafts/Hello-World.md'
+      at Error (native)
+  3) Hexo Console new slug:
+     Error: ENOENT: no such file or directory, open '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/new_test/source/_posts/foo.md'
+      at Error (native)
+  4) Hexo Console new rename if target existed:
+     AssertionError: expected false to be true
+  5) Hexo Console new replace existing files:
+     Error: ENOENT: no such file or directory, unlink '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/new_test/source/_posts/Hello-World.md'
+      at Error (native)
+  6) Hexo Console new extra data:
+     Error: ENOENT: no such file or directory, open '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/new_test/source/_posts/Hello-World.md'
+      at Error (native)
+  7) Hexo Console publish slug:
+     Error: Draft "Hello-World" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  8) Hexo Console publish layout:
+     Error: Draft "Hello-World" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  9) Hexo Console publish rename if target existed:
+     Error: Draft "Hello-World" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  10) Hexo Console publish replace existing target:
+     Error: Draft "Hello-World" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  11) Hexo Core Post create():
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/undefinedHello-World.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/undefinedHello-World.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:65:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  12) Hexo Core Post create() - slug:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/fooHello-World.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/foo.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/fooHello-World.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/foo.md
+      at test/scripts/hexo/post.js:91:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  13) Hexo Core Post create() - filename_case:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/undefinedhello-world-0.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/undefinedhello-world-0.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world.md
+      at test/scripts/hexo/post.js:117:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  14) Hexo Core Post create() - layout:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/undefinedhello-world-1.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/undefinedhello-world-1.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:144:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  15) Hexo Core Post create() - extra data:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/undefinedhello-world-2.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/undefinedhello-world-2.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:170:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  16) Hexo Core Post create() - rename if target existed:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/undefinedhello-world-4.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World-1.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/undefinedhello-world-4.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World-1.md
+      at test/scripts/hexo/post.js:190:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  17) Hexo Core Post create() - replace existing files:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/undefinedhello-world.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/undefinedhello-world.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:212:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  18) Hexo Core Post create() - asset folder:
+     Error: ENOENT: no such file or directory, stat '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World'
+      at Error (native)
+  19) Hexo Core Post create() - non-string title:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/nan.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/12345.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/nan.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/12345.md
+      at test/scripts/hexo/post.js:292:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  20) Hexo Core Post publish():
+     Error: Draft "hello-world" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  21) Hexo Core Post publish() - layout:
+     Error: Draft "hello-world" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  22) Hexo Core Post publish() - rename if target existed:
+     Error: Draft "hello-world" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  23) Hexo Core Post publish() - replace existing files:
+     Error: Draft "hello-world" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  24) Hexo Core Post publish() - asset folder:
+     Error: Draft "hello-world" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  25) Hexo Core Post publish() - non-string title:
+     Error: Draft "12345" does n</t>
+  </si>
+  <si>
+    <t>25 test failures, all different from the ones caused by the original bug</t>
+  </si>
+  <si>
+    <t>24 failing
+  1) Hexo Console new title:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Hexo.newConsole (lib/plugins/console/new.js:43:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:54:12)
+  2) Hexo Console new layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Hexo.newConsole (lib/plugins/console/new.js:43:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:72:12)
+  3) Hexo Console new slug:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Hexo.newConsole (lib/plugins/console/new.js:43:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:92:12)
+  4) Hexo Console new rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:128:17)
+  5) Hexo Console new replace existing files:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:149:17)
+  6) Hexo Console new extra data:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Hexo.newConsole (lib/plugins/console/new.js:43:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:175:12)
+  7) Hexo Console publish "before each" hook for "slug":
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/console/publish.js:45:17)
+  8) Hexo Core Post create():
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:62:17)
+  9) Hexo Core Post create() - slug:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:87:17)
+  10) Hexo Core Post create() - filename_case:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:114:17)
+  11) Hexo Core Post create() - layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:140:17)
+  12) Hexo Core Post create() - extra data:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:166:17)
+  13) Hexo Core Post create() - rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:183:17)
+  14) Hexo Core Post create() - replace existing files:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:205:17)
+  15) Hexo Core Post create() - asset folder:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:222:17)
+  16) Hexo Core Post create() - follow the separator style in the scaffold:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at test/scripts/hexo/post.js:241:19
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at node_modules/hexo-fs/node_modules/bluebird/js/release/nodeback.js:42:21
+      at node_modules/graceful-fs/graceful-fs.js:143:16
+      at node_modules/graceful-fs/graceful-fs.js:61:14
+      at FSReqWrap.oncomplete (fs.js:123:15)
+  17) Hexo Core Post create() - JSON front-matter:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at test/scripts/hexo/post.js:266:19
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at node_modules/hexo-fs/node_modules/bluebird/js/release/nodeback.js:42:21
+      at node_modules/graceful-fs/graceful-fs.js:143:16
+      at node_modules/graceful-fs/graceful-fs.js:61:14
+      at FSReqWrap.oncomplete (fs.js:123:15)
+  18) Hexo Core Post create() - non-string title:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:289:17)
+  19) Hexo Core Post publish():
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:309:17)
+  20) Hexo Core Post publish() - layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:346:17)
+  21) Hexo Core Post publish() - rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:370:12)
+  22) Hexo Core Post publish() - replace existing files:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:390:12)
+  23) Hexo Core Post publish() - asset folder:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:407:17)
+  24) Hexo Core Post publish() - non-string title:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:438:17)</t>
+  </si>
+  <si>
+    <t>24 test failures, all different from the ones caused by the original bug</t>
+  </si>
+  <si>
+    <t>22 failing
+  1) Hexo Console new title:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  2) Hexo Console new layout:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  3) Hexo Console new rename if target existed:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  4) Hexo Console new replace existing files:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  5) Hexo Console new extra data:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  6) Hexo Console publish "before each" hook for "slug":
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  7) Hexo Core Post create():
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  8) Hexo Core Post create() - filename_case:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  9) Hexo Core Post create() - layout:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  10) Hexo Core Post create() - extra data:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  11) Hexo Core Post create() - rename if target existed:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  12) Hexo Core Post create() - replace existing files:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  13) Hexo Core Post create() - asset folder:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  14) Hexo Core Post create() - follow the separator style in the scaffold:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  15) Hexo Core Post create() - JSON front-matter:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  16) Hexo Core Post create() - non-string title:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  17) Hexo Core Post publish():
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  18) Hexo Core Post publish() - layout:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  19) Hexo Core Post publish() - rename if target existed:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  20) Hexo Core Post publish() - replace existing files:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  21) Hexo Core Post publish() - asset folder:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  22) Hexo Core Post publish() - non-string title:
+     TypeError: Either data.path or data.slug is required!
+      at Hexo.newPostPathFilter (lib/plugins/filter/new_post_path.js:86:27)
+      at Hexo.tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Hexo.&lt;anonymous&gt; (node_modules/bluebird/js/main/method.js:15:34)
+      at lib/extend/filter.js:68:35
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at ReductionPromiseArray._promiseFulfilled (node_modules/bluebird/js/main/reduce.js:105:38)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/promise_array.js:92:18)
+      at ReductionPromiseArray.init (node_modules/bluebird/js/main/reduce.js:42:10)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)</t>
+  </si>
+  <si>
+    <t>22 test failures, all different from the ones caused by the original bug</t>
+  </si>
+  <si>
+    <t>24 failing
+  1) Hexo Console new title:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Hexo.newConsole (lib/plugins/console/new.js:43:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:54:12)
+  2) Hexo Console new layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Hexo.newConsole (lib/plugins/console/new.js:43:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:72:12)
+  3) Hexo Console new slug:
+     Error: ENOENT: no such file or directory, open '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/new_test/source/_posts/foo.md'
+      at Error (native)
+  4) Hexo Console new rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:128:17)
+  5) Hexo Console new replace existing files:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:149:17)
+  6) Hexo Console new extra data:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Hexo.newConsole (lib/plugins/console/new.js:43:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:175:12)
+  7) Hexo Console publish "before each" hook for "slug":
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/console/publish.js:45:17)
+  8) Hexo Core Post create():
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:62:17)
+  9) Hexo Core Post create() - slug:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/foo.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/foo.md
+      at test/scripts/hexo/post.js:91:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  10) Hexo Core Post create() - filename_case:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:114:17)
+  11) Hexo Core Post create() - layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:140:17)
+  12) Hexo Core Post create() - extra data:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:166:17)
+  13) Hexo Core Post create() - rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:183:17)
+  14) Hexo Core Post create() - replace existing files:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:205:17)
+  15) Hexo Core Post create() - asset folder:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:222:17)
+  16) Hexo Core Post create() - follow the separator style in the scaffold:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at test/scripts/hexo/post.js:241:19
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at node_modules/hexo-fs/node_modules/bluebird/js/release/nodeback.js:42:21
+      at node_modules/graceful-fs/graceful-fs.js:143:16
+      at node_modules/graceful-fs/graceful-fs.js:61:14
+      at FSReqWrap.oncomplete (fs.js:123:15)
+  17) Hexo Core Post create() - JSON front-matter:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at test/scripts/hexo/post.js:266:19
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at node_modules/hexo-fs/node_modules/bluebird/js/release/nodeback.js:42:21
+      at node_modules/graceful-fs/graceful-fs.js:143:16
+      at node_modules/graceful-fs/graceful-fs.js:61:14
+      at FSReqWrap.oncomplete (fs.js:123:15)
+  18) Hexo Core Post create() - non-string title:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:289:17)
+  19) Hexo Core Post publish():
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:309:17)
+  20) Hexo Core Post publish() - layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:346:17)
+  21) Hexo Core Post publish() - rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:370:12)
+  22) Hexo Core Post publish() - replace existing files:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:390:12)
+  23) Hexo Core Post publish() - asset folder:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:407:17)
+  24) Hexo Core Post publish() - non-string title:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:438:17)</t>
+  </si>
+  <si>
+    <t>1 failing
+  1) Hexo Core Post publish() - non-string title:
+     TypeError: str must be a string!
+      at module.exports (node_modules/hexo-util/lib/slugize.js:9:38)
+      at Post.publish (lib/hexo/post.js:207:26)
+      at test/scripts/hexo/post.js:442:19
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)</t>
+  </si>
+  <si>
+    <t>10 failing
+  1) Hexo Console publish slug:
+     TypeError: str must be a string!
+      at module.exports (node_modules/hexo-util/lib/slugize.js:9:38)
+      at Post.publish (lib/hexo/post.js:207:26)
+      at Hexo.publishConsole (lib/plugins/console/publish.js:15:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/publish.js:63:12)
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  2) Hexo Console publish layout:
+     TypeError: str must be a string!
+      at module.exports (node_modules/hexo-util/lib/slugize.js:9:38)
+      at Post.publish (lib/hexo/post.js:207:26)
+      at Hexo.publishConsole (lib/plugins/console/publish.js:15:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/publish.js:90:12)
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  3) Hexo Console publish rename if target existed:
+     TypeError: str must be a string!
+      at module.exports (node_modules/hexo-util/lib/slugize.js:9:38)
+      at Post.publish (lib/hexo/post.js:207:26)
+      at Hexo.publishConsole (lib/plugins/console/publish.js:15:20)
+      at test/scripts/console/publish.js:106:14
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  4) Hexo Console publish replace existing target:
+     TypeError: str must be a string!
+      at module.exports (node_modules/hexo-util/lib/slugize.js:9:38)
+      at Post.publish (lib/hexo/post.js:207:26)
+      at Hexo.publishConsole (lib/plugins/console/publish.js:15:20)
+      at test/scripts/console/publish.js:127:14
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  5) Hexo Core Post publish():
+     TypeError: str must be a string!
+      at module.exports (node_modules/hexo-util/lib/slugize.js:9:38)
+      at Post.publish (lib/hexo/post.js:207:26)
+      at test/scripts/hexo/post.js:315:19
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  6) Hexo Core Post publish() - layout:
+     TypeError: str must be a string!
+      at module.exports (node_modules/hexo-util/lib/slugize.js:9:38)
+      at Post.publish (lib/hexo/post.js:207:26)
+      at test/scripts/hexo/post.js:350:19
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  7) Hexo Core Post publish() - rename if target existed:
+     TypeError: str must be a string!
+      at module.exports (node_modules/hexo-util/lib/slugize.js:9:38)
+      at Post.publish (lib/hexo/post.js:207:26)
+      at test/scripts/hexo/post.js:375:19
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Promise._settlePromises (node_modules/bluebird/js/main/promise.js:700:14)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:123:16)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  8) Hexo Core Post publish() - replace existing files:
+     TypeError: str must be a string!
+      at module.exports (node_modules/hexo-util/lib/slugize.js:9:38)
+      at Post.publish (lib/hexo/post.js:207:26)
+      at test/scripts/hexo/post.js:393:19
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Promise._settlePromises (node_modules/bluebird/js/main/promise.js:700:14)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:123:16)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  9) Hexo Core Post publish() - asset folder:
+     TypeError: str must be a string!
+      at module.exports (node_modules/hexo-util/lib/slugize.js:9:38)
+      at Post.publish (lib/hexo/post.js:207:26)
+      at test/scripts/hexo/post.js:417:19
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  10) Hexo Core Post publish() - non-string title:
+     TypeError: str must be a string!
+      at module.exports (node_modules/hexo-util/lib/slugize.js:9:38)
+      at Post.publish (lib/hexo/post.js:207:26)
+      at test/scripts/hexo/post.js:442:19
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)</t>
+  </si>
+  <si>
+    <t>10 test failures, all different from the ones caused by the original bug</t>
+  </si>
+  <si>
+    <t>10 failing
+  1) Hexo Console publish slug:
+     Error: Draft "Hello-Worldtest" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  2) Hexo Console publish layout:
+     Error: Draft "Hello-Worldtest" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  3) Hexo Console publish rename if target existed:
+     Error: Draft "Hello-Worldtest" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  4) Hexo Console publish replace existing target:
+     Error: Draft "Hello-Worldtest" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  5) Hexo Core Post publish():
+     Error: Draft "Hello-Worldtest" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  6) Hexo Core Post publish() - layout:
+     Error: Draft "Hello-Worldtest" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  7) Hexo Core Post publish() - rename if target existed:
+     Error: Draft "Hello-Worldtest" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  8) Hexo Core Post publish() - replace existing files:
+     Error: Draft "Hello-Worldtest" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  9) Hexo Core Post publish() - asset folder:
+     Error: Draft "Hello-Worldtest" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  10) Hexo Core Post publish() - non-string title:
+     Error: Draft "12345test" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)</t>
+  </si>
+  <si>
+    <t>10 failing
+  1) Hexo Console publish slug:
+     Error: Draft "HELLO-WORLD" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  2) Hexo Console publish layout:
+     Error: Draft "HELLO-WORLD" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  3) Hexo Console publish rename if target existed:
+     Error: Draft "HELLO-WORLD" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  4) Hexo Console publish replace existing target:
+     Error: Draft "HELLO-WORLD" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  5) Hexo Core Post publish():
+     Error: Draft "HELLO-WORLD" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  6) Hexo Core Post publish() - layout:
+     Error: Draft "HELLO-WORLD" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  7) Hexo Core Post publish() - rename if target existed:
+     Error: Draft "HELLO-WORLD" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  8) Hexo Core Post publish() - replace existing files:
+     Error: Draft "HELLO-WORLD" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  9) Hexo Core Post publish() - asset folder:
+     Error: Draft "HELLO-WORLD" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  10) Hexo Core Post publish() - non-string title:
+     TypeError: data.slug.toUpperCase is not a function
+      at Post.publish (lib/hexo/post.js:207:44)
+      at test/scripts/hexo/post.js:442:19
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)</t>
+  </si>
+  <si>
+    <t>10 failing
+  1) Hexo Console publish slug:
+     Error: Draft "Hello-World0-7063850289340918" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  2) Hexo Console publish layout:
+     Error: Draft "Hello-World0-3549946567515452" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  3) Hexo Console publish rename if target existed:
+     Error: Draft "Hello-World0-1559872027979714" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  4) Hexo Console publish replace existing target:
+     Error: Draft "Hello-World0-472616454360383" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  5) Hexo Core Post publish():
+     Error: Draft "Hello-World0-720737002926207" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  6) Hexo Core Post publish() - layout:
+     Error: Draft "Hello-World0-5803941910082409" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  7) Hexo Core Post publish() - rename if target existed:
+     Error: Draft "Hello-World0-3670433143136038" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  8) Hexo Core Post publish() - replace existing files:
+     Error: Draft "Hello-World0-14885918282656663" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  9) Hexo Core Post publish() - asset folder:
+     Error: Draft "Hello-World0-9045312539973644" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)
+  10) Hexo Core Post publish() - non-string title:
+     TypeError: str must be a string!
+      at module.exports (node_modules/hexo-util/lib/slugize.js:9:38)
+      at Post.publish (lib/hexo/post.js:207:26)
+      at test/scripts/hexo/post.js:442:19
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 failing
+  1) Hexo Console new title:
+     Error: ENOENT: no such file or directory, open '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/new_test/source/_posts/Hello-World.md'
+      at Error (native)
+  2) Hexo Console new layout:
+     Error: ENOENT: no such file or directory, open '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/new_test/source/_drafts/Hello-World.md'
+      at Error (native)
+  3) Hexo Console new slug:
+     Error: ENOENT: no such file or directory, open '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/new_test/source/_posts/foo.md'
+      at Error (native)
+  4) Hexo Console new rename if target existed:
+     AssertionError: expected false to be true
+  5) Hexo Console new replace existing files:
+     Error: ENOENT: no such file or directory, unlink '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/new_test/source/_posts/Hello-World.md'
+      at Error (native)
+  6) Hexo Console new extra data:
+     Error: ENOENT: no such file or directory, open '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/new_test/source/_posts/Hello-World.md'
+      at Error (native)
+  7) Hexo Console publish slug:
+     Error: ENOENT: no such file or directory, open '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/publish_test/source/_posts/Hello-World.md'
+      at Error (native)
+  8) Hexo Console publish layout:
+     Error: ENOENT: no such file or directory, open '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/publish_test/source/_posts/Hello-World.md'
+      at Error (native)
+  9) Hexo Console publish rename if target existed:
+     AssertionError: expected false to be true
+  10) Hexo Console publish replace existing target:
+     Error: ENOENT: no such file or directory, unlink '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/publish_test/source/_posts/Hello-World.md'
+      at Error (native)
+  11) Hexo Core Post create():
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-Worldundefined.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-Worldundefined.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:65:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  12) Hexo Core Post create() - slug:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-Worldfoo.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/foo.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-Worldfoo.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/foo.md
+      at test/scripts/hexo/post.js:91:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  13) Hexo Core Post create() - filename_case:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldundefined-0.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldundefined-0.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world.md
+      at test/scripts/hexo/post.js:117:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  14) Hexo Core Post create() - layout:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldundefined-1.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldundefined-1.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:144:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  15) Hexo Core Post create() - extra data:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldundefined-2.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldundefined-2.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:170:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  16) Hexo Core Post create() - rename if target existed:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldundefined-4.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World-1.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldundefined-4.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World-1.md
+      at test/scripts/hexo/post.js:190:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  17) Hexo Core Post create() - replace existing files:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldundefined.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldundefined.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:212:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  18) Hexo Core Post create() - asset folder:
+     Error: ENOENT: no such file or directory, stat '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World'
+      at Error (native)
+  19) Hexo Core Post create() - non-string title:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/nan.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/12345.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/nan.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/12345.md
+      at test/scripts/hexo/post.js:292:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  20) Hexo Core Post publish():
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldhello-world.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldhello-world.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:319:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  21) Hexo Core Post publish() - layout:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldhello-world-1.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldhello-world-1.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:355:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  22) Hexo Core Post publish() - rename if target existed:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldhello-world-2.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World-1.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldhello-world-2.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World-1.md
+      at test/scripts/hexo/post.js:379:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  23) Hexo Core Post publish() - replace existing files:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldhello-world.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-worldhello-world.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:397:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  24) Hexo Core Post publish() - asset folder:
+     Error: ENOENT: no such file or directory, scandir '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World'
+      at Error (native)
+  25) Hexo Core Post publish() - non-string title:
+     Error: Draft "12345" does not exist.
+      at lib/hexo/post.js:224:22
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:559:17)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at Promise._resolveCallback (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:466:57)
+      at ReductionPromiseArray._resolve (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:60:19)
+      at Promise.completed [as _fulfillmentHandler0] (node_modules/hexo-fs/node_modules/bluebird/js/release/reduce.js:133:15)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:601:21)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at _drainQueueStep (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:93:12)
+      at _drainQueue (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:86:9)
+      at Async._drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:102:5)
+      at Immediate.Async.drainQueues (node_modules/hexo-fs/node_modules/bluebird/js/release/async.js:15:14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24 failing
+  1) Hexo Console new title:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Hexo.newConsole (lib/plugins/console/new.js:43:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:54:12)
+  2) Hexo Console new layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Hexo.newConsole (lib/plugins/console/new.js:43:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:72:12)
+  3) Hexo Console new slug:
+     Error: ENOENT: no such file or directory, open '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/new_test/source/_posts/foo.md'
+      at Error (native)
+  4) Hexo Console new rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:128:17)
+  5) Hexo Console new replace existing files:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:149:17)
+  6) Hexo Console new extra data:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Hexo.newConsole (lib/plugins/console/new.js:43:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:175:12)
+  7) Hexo Console publish "before each" hook for "slug":
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/console/publish.js:45:17)
+  8) Hexo Core Post create():
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:62:17)
+  9) Hexo Core Post create() - slug:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/foo.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/foo.md
+      at test/scripts/hexo/post.js:91:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  10) Hexo Core Post create() - filename_case:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:114:17)
+  11) Hexo Core Post create() - layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:140:17)
+  12) Hexo Core Post create() - extra data:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:166:17)
+  13) Hexo Core Post create() - rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:183:17)
+  14) Hexo Core Post create() - replace existing files:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:205:17)
+  15) Hexo Core Post create() - asset folder:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:222:17)
+  16) Hexo Core Post create() - follow the separator style in the scaffold:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at test/scripts/hexo/post.js:241:19
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at node_modules/hexo-fs/node_modules/bluebird/js/release/nodeback.js:42:21
+      at node_modules/graceful-fs/graceful-fs.js:143:16
+      at node_modules/graceful-fs/graceful-fs.js:61:14
+      at FSReqWrap.oncomplete (fs.js:123:15)
+  17) Hexo Core Post create() - JSON front-matter:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at test/scripts/hexo/post.js:266:19
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at node_modules/hexo-fs/node_modules/bluebird/js/release/nodeback.js:42:21
+      at node_modules/graceful-fs/graceful-fs.js:143:16
+      at node_modules/graceful-fs/graceful-fs.js:61:14
+      at FSReqWrap.oncomplete (fs.js:123:15)
+  18) Hexo Core Post create() - non-string title:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:289:17)
+  19) Hexo Core Post publish():
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:309:17)
+  20) Hexo Core Post publish() - layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:346:17)
+  21) Hexo Core Post publish() - rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:370:12)
+  22) Hexo Core Post publish() - replace existing files:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:390:12)
+  23) Hexo Core Post publish() - asset folder:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:407:17)
+  24) Hexo Core Post publish() - non-string title:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:48)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:438:17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 failing
+  1) Hexo Console new slug:
+     Error: ENOENT: no such file or directory, open '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/console/new_test/source/_posts/foo.md'
+      at Error (native)
+  2) Hexo Core Post create() - slug:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/foo.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/foo.md
+      at test/scripts/hexo/post.js:91:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  3) Hexo Core Post create() - filename_case:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-0.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-0.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world.md
+      at test/scripts/hexo/post.js:117:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  4) Hexo Core Post create() - layout:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-1.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-1.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:144:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  5) Hexo Core Post create() - extra data:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-2.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-2.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:170:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  6) Hexo Core Post create() - rename if target existed:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-4.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World-1.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-4.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World-1.md
+      at test/scripts/hexo/post.js:190:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  7) Hexo Core Post create() - replace existing files:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:212:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  8) Hexo Core Post create() - asset folder:
+     Error: ENOENT: no such file or directory, stat '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World'
+      at Error (native)
+  9) Hexo Core Post publish():
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-7.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-7.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:319:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  10) Hexo Core Post publish() - layout:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-8.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-8.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:355:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  11) Hexo Core Post publish() - rename if target existed:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-10.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World-1.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world-10.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World-1.md
+      at test/scripts/hexo/post.js:379:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  12) Hexo Core Post publish() - replace existing files:
+      AssertionError: expected '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world.md' to deeply equal '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md'
+      + expected - actual
+      -/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/hello-world.md
+      +/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World.md
+      at test/scripts/hexo/post.js:397:24
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  13) Hexo Core Post publish() - asset folder:
+     Error: ENOENT: no such file or directory, scandir '/Users/franktip/projects/bugs.js/bug-dataset/output/hexo/test/scripts/hexo/post_test/source/_posts/Hello-World'
+      at Error (native)</t>
+  </si>
+  <si>
+    <t>surviving mutant -- does not cause any test failures</t>
+  </si>
+  <si>
+    <t>10 failing
+  1) Hexo Console publish slug:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.publish (lib/hexo/post.js:207:44)
+      at Hexo.publishConsole (lib/plugins/console/publish.js:15:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/publish.js:63:12)
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  2) Hexo Console publish layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.publish (lib/hexo/post.js:207:44)
+      at Hexo.publishConsole (lib/plugins/console/publish.js:15:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/publish.js:90:12)
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  3) Hexo Console publish rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.publish (lib/hexo/post.js:207:44)
+      at Hexo.publishConsole (lib/plugins/console/publish.js:15:20)
+      at test/scripts/console/publish.js:106:14
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  4) Hexo Console publish replace existing target:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.publish (lib/hexo/post.js:207:44)
+      at Hexo.publishConsole (lib/plugins/console/publish.js:15:20)
+      at test/scripts/console/publish.js:127:14
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  5) Hexo Core Post publish():
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.publish (lib/hexo/post.js:207:44)
+      at test/scripts/hexo/post.js:315:19
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  6) Hexo Core Post publish() - layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.publish (lib/hexo/post.js:207:44)
+      at test/scripts/hexo/post.js:350:19
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  7) Hexo Core Post publish() - rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.publish (lib/hexo/post.js:207:44)
+      at test/scripts/hexo/post.js:375:19
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Promise._settlePromises (node_modules/bluebird/js/main/promise.js:700:14)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:123:16)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  8) Hexo Core Post publish() - replace existing files:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.publish (lib/hexo/post.js:207:44)
+      at test/scripts/hexo/post.js:393:19
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Promise._settlePromises (node_modules/bluebird/js/main/promise.js:700:14)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:123:16)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  9) Hexo Core Post publish() - asset folder:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.publish (lib/hexo/post.js:207:44)
+      at test/scripts/hexo/post.js:417:19
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)
+  10) Hexo Core Post publish() - non-string title:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.publish (lib/hexo/post.js:207:44)
+      at test/scripts/hexo/post.js:442:19
+      at tryCatcher (node_modules/bluebird/js/main/util.js:26:23)
+      at Promise._settlePromiseFromHandler (node_modules/bluebird/js/main/promise.js:510:31)
+      at Promise._settlePromiseAt (node_modules/bluebird/js/main/promise.js:584:18)
+      at Async._drainQueue (node_modules/bluebird/js/main/async.js:128:12)
+      at Async._drainQueues (node_modules/bluebird/js/main/async.js:133:10)
+      at Immediate.Async.drainQueues (node_modules/bluebird/js/main/async.js:15:14)</t>
+  </si>
+  <si>
+    <t>13  test failures, all different from the ones caused by the original bug</t>
+  </si>
+  <si>
+    <t>22 failing
+  1) Hexo Console new title:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Hexo.newConsole (lib/plugins/console/new.js:43:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:54:12)
+  2) Hexo Console new layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Hexo.newConsole (lib/plugins/console/new.js:43:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:72:12)
+  3) Hexo Console new rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:128:17)
+  4) Hexo Console new replace existing files:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:149:17)
+  5) Hexo Console new extra data:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Hexo.newConsole (lib/plugins/console/new.js:43:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:175:12)
+  6) Hexo Console publish "before each" hook for "slug":
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/console/publish.js:45:17)
+  7) Hexo Core Post create():
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:62:17)
+  8) Hexo Core Post create() - filename_case:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:114:17)
+  9) Hexo Core Post create() - layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:140:17)
+  10) Hexo Core Post create() - extra data:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:166:17)
+  11) Hexo Core Post create() - rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:183:17)
+  12) Hexo Core Post create() - replace existing files:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:205:17)
+  13) Hexo Core Post create() - asset folder:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:222:17)
+  14) Hexo Core Post create() - follow the separator style in the scaffold:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at test/scripts/hexo/post.js:241:19
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at node_modules/hexo-fs/node_modules/bluebird/js/release/nodeback.js:42:21
+      at node_modules/graceful-fs/graceful-fs.js:143:16
+      at node_modules/graceful-fs/graceful-fs.js:61:14
+      at FSReqWrap.oncomplete (fs.js:123:15)
+  15) Hexo Core Post create() - JSON front-matter:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at test/scripts/hexo/post.js:266:19
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at node_modules/hexo-fs/node_modules/bluebird/js/release/nodeback.js:42:21
+      at node_modules/graceful-fs/graceful-fs.js:143:16
+      at node_modules/graceful-fs/graceful-fs.js:61:14
+      at FSReqWrap.oncomplete (fs.js:123:15)
+  16) Hexo Core Post create() - non-string title:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:289:17)
+  17) Hexo Core Post publish():
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:309:17)
+  18) Hexo Core Post publish() - layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:346:17)
+  19) Hexo Core Post publish() - rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:370:12)
+  20) Hexo Core Post publish() - replace existing files:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:390:12)
+  21) Hexo Core Post publish() - asset folder:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:407:17)
+  22) Hexo Core Post publish() - non-string title:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:438:17)</t>
+  </si>
+  <si>
+    <t>22  test failures, all different from the ones caused by the original bug</t>
+  </si>
+  <si>
+    <t>24  test failures, all different from the ones caused by the original bug</t>
+  </si>
+  <si>
+    <t>10  test failures, all different from the ones caused by the original bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 failing
+  1) Hexo Console new title:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Hexo.newConsole (lib/plugins/console/new.js:43:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:54:12)
+  2) Hexo Console new layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Hexo.newConsole (lib/plugins/console/new.js:43:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:72:12)
+  3) Hexo Console new rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:128:17)
+  4) Hexo Console new replace existing files:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:149:17)
+  5) Hexo Console new extra data:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Hexo.newConsole (lib/plugins/console/new.js:43:20)
+      at Context.&lt;anonymous&gt; (test/scripts/console/new.js:175:12)
+  6) Hexo Console publish "before each" hook for "slug":
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/console/publish.js:45:17)
+  7) Hexo Core Post create():
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:62:17)
+  8) Hexo Core Post create() - filename_case:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:114:17)
+  9) Hexo Core Post create() - layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:140:17)
+  10) Hexo Core Post create() - extra data:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:166:17)
+  11) Hexo Core Post create() - rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:183:17)
+  12) Hexo Core Post create() - replace existing files:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:205:17)
+  13) Hexo Core Post create() - asset folder:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:222:17)
+  14) Hexo Core Post create() - follow the separator style in the scaffold:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at test/scripts/hexo/post.js:241:19
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at node_modules/hexo-fs/node_modules/bluebird/js/release/nodeback.js:42:21
+      at node_modules/graceful-fs/graceful-fs.js:143:16
+      at node_modules/graceful-fs/graceful-fs.js:61:14
+      at FSReqWrap.oncomplete (fs.js:123:15)
+  15) Hexo Core Post create() - JSON front-matter:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at test/scripts/hexo/post.js:266:19
+      at tryCatcher (node_modules/hexo-fs/node_modules/bluebird/js/release/util.js:16:23)
+      at Promise._settlePromiseFromHandler (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:547:31)
+      at Promise._settlePromise (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:604:18)
+      at Promise._settlePromise0 (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:649:10)
+      at Promise._settlePromises (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:729:18)
+      at Promise._fulfill (node_modules/hexo-fs/node_modules/bluebird/js/release/promise.js:673:18)
+      at node_modules/hexo-fs/node_modules/bluebird/js/release/nodeback.js:42:21
+      at node_modules/graceful-fs/graceful-fs.js:143:16
+      at node_modules/graceful-fs/graceful-fs.js:61:14
+      at FSReqWrap.oncomplete (fs.js:123:15)
+  16) Hexo Core Post create() - non-string title:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:289:17)
+  17) Hexo Core Post publish():
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:309:17)
+  18) Hexo Core Post publish() - layout:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:346:17)
+  19) Hexo Core Post publish() - rename if target existed:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:370:12)
+  20) Hexo Core Post publish() - replace existing files:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:390:12)
+  21) Hexo Core Post publish() - asset folder:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:407:17)
+  22) Hexo Core Post publish() - non-string title:
+     TypeError: Cannot read property 'toString' of undefined
+      at Post.create (lib/hexo/post.js:50:32)
+      at Context.&lt;anonymous&gt; (test/scripts/hexo/post.js:438:17)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -680,13 +3446,6 @@
       <color rgb="FF777777"/>
       <name val="Menlo Regular"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -744,7 +3503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -788,18 +3547,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -850,16 +3597,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -871,6 +3618,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -879,8 +3629,38 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1215,11 +3995,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6EC958-9371-6B48-9F3B-0A80A4AE93D3}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="64.6640625" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="157" customHeight="1">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>207</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C302C4E-966E-E54E-A26B-052C43363DBC}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1227,22 +4102,25 @@
     <col min="2" max="2" width="62" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="72.5" customWidth="1"/>
-    <col min="5" max="5" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="7" width="75.6640625" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="79.6640625" customWidth="1"/>
-    <col min="11" max="11" width="36" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
-    <col min="13" max="13" width="88" customWidth="1"/>
-    <col min="14" max="14" width="24.5" customWidth="1"/>
-    <col min="15" max="15" width="15.5" customWidth="1"/>
-    <col min="16" max="16" width="110.83203125" customWidth="1"/>
-    <col min="17" max="17" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="46.5" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="9" width="75.6640625" customWidth="1"/>
+    <col min="10" max="10" width="33.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="13" width="79.6640625" customWidth="1"/>
+    <col min="14" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
+    <col min="16" max="16" width="71.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.1640625" customWidth="1"/>
+    <col min="18" max="18" width="24.5" customWidth="1"/>
+    <col min="19" max="19" width="15.5" customWidth="1"/>
+    <col min="20" max="20" width="67" customWidth="1"/>
+    <col min="21" max="21" width="78.83203125" customWidth="1"/>
+    <col min="22" max="22" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:22">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1250,32 +4128,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="43" t="s">
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:22">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="1"/>
@@ -1283,50 +4166,63 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="U2" s="8"/>
+      <c r="V2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="196" customHeight="1">
-      <c r="A3" s="45">
+    <row r="3" spans="1:22" ht="196" customHeight="1">
+      <c r="A3" s="42">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="41" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="14">
@@ -1335,172 +4231,254 @@
       <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="22">
+      <c r="E3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="18">
         <v>1</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="H3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="23">
+        <v>1</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="31">
+        <v>1</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="32">
+        <v>1</v>
+      </c>
+      <c r="T3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="27">
-        <v>1</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="35">
-        <v>1</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="36">
-        <v>1</v>
-      </c>
-      <c r="P3" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="38"/>
+      <c r="U3" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="53" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="188" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="48"/>
+    <row r="4" spans="1:22" ht="188" customHeight="1">
+      <c r="A4" s="42"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="14">
         <v>2</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="23">
+      <c r="E4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="19">
         <v>2</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="28">
+      <c r="H4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="24">
         <v>2</v>
       </c>
-      <c r="J4" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="35">
+      <c r="L4" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="31">
         <v>2</v>
       </c>
-      <c r="M4" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="34" t="s">
+      <c r="P4" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="32">
         <v>2</v>
       </c>
-      <c r="O4" s="36">
-        <v>2</v>
-      </c>
-      <c r="P4" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="39"/>
+      <c r="T4" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="53" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="157" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="48"/>
+    <row r="5" spans="1:22" ht="157" customHeight="1">
+      <c r="A5" s="42"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="14">
         <v>3</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="23">
+      <c r="E5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="19">
         <v>3</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="28">
+      <c r="H5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="24">
         <v>3</v>
       </c>
-      <c r="J5" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="35">
+      <c r="L5" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="31">
         <v>3</v>
       </c>
-      <c r="M5" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="36">
+      <c r="P5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="32">
         <v>3</v>
       </c>
-      <c r="P5" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="38"/>
+      <c r="T5" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="V5" s="53" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="169" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="48"/>
+    <row r="6" spans="1:22" ht="169" customHeight="1">
+      <c r="A6" s="42"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="14">
         <v>4</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="E6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="19">
         <v>4</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="28">
+      <c r="H6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="24">
         <v>4</v>
       </c>
-      <c r="J6" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="35">
+      <c r="L6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="31">
         <v>4</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="P6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="36">
+      <c r="Q6" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" s="32">
         <v>4</v>
       </c>
-      <c r="P6" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="39"/>
+      <c r="T6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="V6" s="53" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="157" customHeight="1">
+    <row r="7" spans="1:22" ht="157" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="14">
@@ -1509,41 +4487,62 @@
       <c r="D7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="24">
+      <c r="E7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="20">
         <v>5</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="29">
+      <c r="H7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="25">
         <v>5</v>
       </c>
-      <c r="J7" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="35">
+      <c r="L7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="31">
         <v>5</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="P7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="36">
+      <c r="Q7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" s="32">
         <v>5</v>
       </c>
-      <c r="P7" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="39"/>
+      <c r="T7" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" s="53" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="168" customHeight="1">
+    <row r="8" spans="1:22" ht="168" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="14">
@@ -1552,41 +4551,62 @@
       <c r="D8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="25">
+      <c r="E8" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="21">
         <v>6</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="30">
+      <c r="H8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="26">
         <v>6</v>
       </c>
-      <c r="J8" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="35">
+      <c r="L8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="31">
         <v>6</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="P8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="36">
+      <c r="Q8" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="S8" s="32">
         <v>6</v>
       </c>
-      <c r="P8" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="40"/>
+      <c r="T8" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="V8" s="53" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="150" customHeight="1">
+    <row r="9" spans="1:22" ht="150" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="14">
@@ -1595,43 +4615,62 @@
       <c r="D9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="25">
+      <c r="E9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="21">
         <v>7</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="H9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="30">
+      <c r="I9" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="26">
         <v>7</v>
       </c>
-      <c r="J9" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="35">
+      <c r="L9" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="31">
         <v>7</v>
       </c>
-      <c r="M9" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="36">
+      <c r="P9" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="32">
         <v>7</v>
       </c>
-      <c r="P9" s="41" t="s">
+      <c r="T9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="40" t="s">
-        <v>47</v>
+      <c r="U9" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="V9" s="53" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="170">
+    <row r="10" spans="1:22" ht="234" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="14">
@@ -1640,43 +4679,62 @@
       <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="25">
+      <c r="E10" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="21">
         <v>8</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="H10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="26">
+        <v>8</v>
+      </c>
+      <c r="L10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="30">
+      <c r="M10" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="31">
         <v>8</v>
       </c>
-      <c r="J10" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="35">
+      <c r="P10" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="32">
         <v>8</v>
       </c>
-      <c r="M10" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="36">
-        <v>8</v>
-      </c>
-      <c r="P10" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="40"/>
+      <c r="T10" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="V10" s="54" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" ht="170">
+    <row r="11" spans="1:22" ht="224" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="14">
@@ -1685,41 +4743,62 @@
       <c r="D11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="25">
+      <c r="E11" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="21">
         <v>9</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="30">
+      <c r="H11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="26">
         <v>9</v>
       </c>
-      <c r="J11" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="35">
+      <c r="L11" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="31">
         <v>9</v>
       </c>
-      <c r="M11" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O11" s="36">
+      <c r="P11" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="R11" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" s="32">
         <v>9</v>
       </c>
-      <c r="P11" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="40"/>
+      <c r="T11" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="V11" s="55" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" ht="184">
+    <row r="12" spans="1:22" ht="195" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="14">
@@ -1728,41 +4807,62 @@
       <c r="D12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="25">
+      <c r="E12" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="21">
         <v>10</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="30">
+      <c r="H12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="26">
         <v>10</v>
       </c>
-      <c r="J12" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="35">
+      <c r="L12" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="31">
         <v>10</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="P12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O12" s="36">
+      <c r="Q12" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="S12" s="32">
         <v>10</v>
       </c>
-      <c r="P12" s="41" t="s">
+      <c r="T12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="40"/>
+      <c r="U12" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" ht="184">
+    <row r="13" spans="1:22" ht="210" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="14">
@@ -1771,41 +4871,62 @@
       <c r="D13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="25">
+      <c r="E13" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="21">
         <v>11</v>
       </c>
-      <c r="G13" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="30">
+      <c r="H13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="26">
         <v>11</v>
       </c>
-      <c r="J13" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="35">
+      <c r="L13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="31">
         <v>11</v>
       </c>
-      <c r="M13" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O13" s="36">
+      <c r="P13" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="S13" s="32">
         <v>11</v>
       </c>
-      <c r="P13" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="40"/>
+      <c r="T13" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="V13" s="53" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" ht="184">
+    <row r="14" spans="1:22" ht="409.6">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="14">
@@ -1814,95 +4935,120 @@
       <c r="D14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="25">
+      <c r="E14" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="21">
         <v>12</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="30">
+      <c r="H14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="26">
         <v>12</v>
       </c>
-      <c r="J14" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="34" t="s">
+      <c r="P14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="34" t="s">
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:22">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="32"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="34" t="s">
+      <c r="P15" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="34" t="s">
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:22">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="34" t="s">
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="34" t="s">
+      <c r="P16" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N16" s="34" t="s">
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="O1:R1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
